--- a/cypress/fixtures/users.xlsx
+++ b/cypress/fixtures/users.xlsx
@@ -1,203 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+  <si>
+    <t>firstName</t>
+  </si>
   <si>
     <t>lastName</t>
   </si>
   <si>
-    <t>firstName</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>hobby</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>skills</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>Samira</t>
-  </si>
-  <si>
     <t>Begum</t>
   </si>
   <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>samiraofficial83@gmail.com</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Abc123$</t>
+  </si>
+  <si>
+    <t>Samira2</t>
+  </si>
+  <si>
     <t>Begum2</t>
   </si>
   <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>samiraofficial84@gmail.com</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>dfgfdg124@</t>
+  </si>
+  <si>
+    <t>Samira3</t>
+  </si>
+  <si>
     <t>Begum3</t>
   </si>
   <si>
-    <t>Samira2</t>
-  </si>
-  <si>
-    <t>Samira3</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
     <t>Bangalore</t>
   </si>
   <si>
-    <t>samiraofficial83@gmail.com</t>
-  </si>
-  <si>
-    <t>samiraofficial84@gmail.com</t>
-  </si>
-  <si>
     <t>samiraofficial85@gmail.com</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
-    <t>Cricket</t>
-  </si>
-  <si>
-    <t>Movies</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Dutch</t>
+    <t>Hockey</t>
   </si>
   <si>
     <t>Danish</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>C++</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>April</t>
   </si>
   <si>
-    <t>Abc123$</t>
-  </si>
-  <si>
-    <t>dfgfdg124@</t>
-  </si>
-  <si>
     <t>Abc1234$</t>
-  </si>
-  <si>
-    <t>Hockey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFCE9178"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color rgb="FFFF0000"/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Menlo"/>
     </font>
     <font>
+      <color rgb="FFA31515"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <u/>
+      <color theme="10"/>
+      <family val="2"/>
       <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFCE9178"/>
       <family val="2"/>
+      <sz val="12"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,33 +201,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,201 +534,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1682508008208</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3">
         <v>9585597260</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3">
         <v>2000</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1">
         <v>15</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3">
         <v>9585597261</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="J3" s="3">
         <v>2001</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1">
         <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3">
         <v>9585597262</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3">
         <v>2002</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="2">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="E6" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>